--- a/2-calidad/3-documentos-gestion-calidad/FICHAS Y FORMULARIOS TIPO/PERFIL DE PUESTO CALIDAD.xlsx
+++ b/2-calidad/3-documentos-gestion-calidad/FICHAS Y FORMULARIOS TIPO/PERFIL DE PUESTO CALIDAD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -129,9 +129,6 @@
     <t xml:space="preserve">Específicos de procedimientos definidos para el área de gestión </t>
   </si>
   <si>
-    <t>ormalización de procesos y registros del Sistema de Gestión de Calidad;</t>
-  </si>
-  <si>
     <t>Tratamiento de No Conformidades</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>del Auditor Interno aportara  el plus diferencial para un análisis integrado y gerencial del puesto.</t>
+  </si>
+  <si>
+    <t>Normalización de procesos y registros del Sistema de Gestión de Calidad;</t>
   </si>
 </sst>
 </file>
@@ -569,6 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,7 +579,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1021,12 +1021,12 @@
       <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1138,7 +1138,7 @@
     <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="32" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1150,7 +1150,7 @@
     <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
       <c r="C18" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1162,7 +1162,7 @@
     <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
       <c r="C19" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1174,7 +1174,7 @@
     <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1186,7 +1186,7 @@
     <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
       <c r="C21" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1198,7 +1198,7 @@
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>
       <c r="C22" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1224,7 +1224,7 @@
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
       <c r="C24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -1278,7 +1278,7 @@
     <row r="28" spans="2:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -1306,7 +1306,7 @@
     <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -1390,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1404,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1428,7 +1428,7 @@
       <c r="I38" s="11"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="41"/>
+      <c r="C40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1509,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1519,12 +1519,12 @@
       <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
+      <c r="C8" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1562,7 +1562,7 @@
     <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1584,7 +1584,7 @@
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1596,7 +1596,7 @@
     <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1618,7 +1618,7 @@
     <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1630,7 +1630,7 @@
     <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1642,7 +1642,7 @@
     <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
       <c r="C18" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1654,7 +1654,7 @@
     <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
       <c r="C19" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1666,7 +1666,7 @@
     <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1724,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1762,7 +1762,7 @@
     <row r="28" spans="2:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -1778,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1844,7 +1844,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1858,7 +1858,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1872,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1886,7 +1886,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
